--- a/public/prs.xlsx
+++ b/public/prs.xlsx
@@ -5,16 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karanhoss/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karanhoss/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16700" tabRatio="500"/>
+    <workbookView xWindow="2240" yWindow="3180" windowWidth="26560" windowHeight="14080" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="PO #100041" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,9 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Item #</t>
+  </si>
+  <si>
+    <t>0402219712</t>
   </si>
   <si>
     <t>Qty</t>
@@ -39,35 +42,38 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <name val="Arial"/>
-      <family val="1"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Arial"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Arial"/>
-      <family val="1"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -75,22 +81,55 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="hair">
+        <color indexed="8"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -362,58 +401,2152 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C194"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0">
-      <selection activeCell="A7" sqref="A4:XFD7"/>
+    <sheetView tabSelected="1" topLeftCell="A188" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>802535001022</v>
+      </c>
+      <c r="B2">
+        <v>12</v>
+      </c>
+      <c r="C2">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>802535001046</v>
+      </c>
+      <c r="B3">
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>802535001053</v>
+      </c>
+      <c r="B4">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>802535001145</v>
+      </c>
+      <c r="B5">
+        <v>24</v>
+      </c>
+      <c r="C5">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>802535001152</v>
+      </c>
+      <c r="B6">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>802535001169</v>
+      </c>
+      <c r="B7">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>802535001176</v>
+      </c>
+      <c r="B8">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>802535001183</v>
+      </c>
+      <c r="B9">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>802535001206</v>
+      </c>
+      <c r="B10">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>802535001213</v>
+      </c>
+      <c r="B11">
+        <v>24</v>
+      </c>
+      <c r="C11">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>802535001237</v>
+      </c>
+      <c r="B12">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>802535001244</v>
+      </c>
+      <c r="B13">
+        <v>24</v>
+      </c>
+      <c r="C13">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>802535001312</v>
+      </c>
+      <c r="B14">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>802535001343</v>
+      </c>
+      <c r="B15">
+        <v>12</v>
+      </c>
+      <c r="C15">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>802535001350</v>
+      </c>
+      <c r="B16">
+        <v>12</v>
+      </c>
+      <c r="C16">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>802535001411</v>
+      </c>
+      <c r="B17">
+        <v>24</v>
+      </c>
+      <c r="C17">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>802535001428</v>
+      </c>
+      <c r="B18">
+        <v>12</v>
+      </c>
+      <c r="C18">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>802535001435</v>
+      </c>
+      <c r="B19">
+        <v>12</v>
+      </c>
+      <c r="C19">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>802535001442</v>
+      </c>
+      <c r="B20">
+        <v>12</v>
+      </c>
+      <c r="C20">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>802535001466</v>
+      </c>
+      <c r="B21">
+        <v>12</v>
+      </c>
+      <c r="C21">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>802535009103</v>
+      </c>
+      <c r="B22">
+        <v>12</v>
+      </c>
+      <c r="C22">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>802535009110</v>
+      </c>
+      <c r="B23">
+        <v>12</v>
+      </c>
+      <c r="C23">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>802535400016</v>
+      </c>
+      <c r="B24">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <v>802535401013</v>
+      </c>
+      <c r="B25">
+        <v>12</v>
+      </c>
+      <c r="C25">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
+        <v>802535410053</v>
+      </c>
+      <c r="B26">
+        <v>12</v>
+      </c>
+      <c r="C26">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
+        <v>802535411050</v>
+      </c>
+      <c r="B27">
+        <v>24</v>
+      </c>
+      <c r="C27">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
+        <v>802535432086</v>
+      </c>
+      <c r="B28">
+        <v>12</v>
+      </c>
+      <c r="C28">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
+        <v>802535434158</v>
+      </c>
+      <c r="B29">
+        <v>36</v>
+      </c>
+      <c r="C29">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="2">
+        <v>802535435087</v>
+      </c>
+      <c r="B30">
+        <v>12</v>
+      </c>
+      <c r="C30">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="2">
+        <v>802535435094</v>
+      </c>
+      <c r="B31">
+        <v>12</v>
+      </c>
+      <c r="C31">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="2">
+        <v>802535436121</v>
+      </c>
+      <c r="B32">
+        <v>24</v>
+      </c>
+      <c r="C32">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="2">
+        <v>802535437128</v>
+      </c>
+      <c r="B33">
+        <v>6</v>
+      </c>
+      <c r="C33">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="2">
+        <v>802535438125</v>
+      </c>
+      <c r="B34">
+        <v>12</v>
+      </c>
+      <c r="C34">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="2">
+        <v>802535439030</v>
+      </c>
+      <c r="B35">
+        <v>12</v>
+      </c>
+      <c r="C35">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="2">
+        <v>802535440128</v>
+      </c>
+      <c r="B36">
+        <v>12</v>
+      </c>
+      <c r="C36">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="2">
+        <v>802535441125</v>
+      </c>
+      <c r="B37">
+        <v>12</v>
+      </c>
+      <c r="C37">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="2">
+        <v>802535442122</v>
+      </c>
+      <c r="B38">
+        <v>12</v>
+      </c>
+      <c r="C38">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="2">
+        <v>802535443082</v>
+      </c>
+      <c r="B39">
+        <v>12</v>
+      </c>
+      <c r="C39">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="2">
+        <v>802535444089</v>
+      </c>
+      <c r="B40">
+        <v>12</v>
+      </c>
+      <c r="C40">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="2">
+        <v>802535450530</v>
+      </c>
+      <c r="B41">
+        <v>6</v>
+      </c>
+      <c r="C41">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="2">
+        <v>802535451537</v>
+      </c>
+      <c r="B42">
+        <v>36</v>
+      </c>
+      <c r="C42">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="2">
+        <v>802535453531</v>
+      </c>
+      <c r="B43">
+        <v>12</v>
+      </c>
+      <c r="C43">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="2">
+        <v>802535470019</v>
+      </c>
+      <c r="B44">
+        <v>18</v>
+      </c>
+      <c r="C44">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="2">
+        <v>802535470057</v>
+      </c>
+      <c r="B45">
+        <v>72</v>
+      </c>
+      <c r="C45">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="2">
+        <v>802535471016</v>
+      </c>
+      <c r="B46">
+        <v>12</v>
+      </c>
+      <c r="C46">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="2">
+        <v>802535471054</v>
+      </c>
+      <c r="B47">
+        <v>12</v>
+      </c>
+      <c r="C47">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="2">
+        <v>802535472082</v>
+      </c>
+      <c r="B48">
+        <v>12</v>
+      </c>
+      <c r="C48">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="2">
+        <v>802535473126</v>
+      </c>
+      <c r="B49">
+        <v>12</v>
+      </c>
+      <c r="C49">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="2">
+        <v>802535474123</v>
+      </c>
+      <c r="B50">
+        <v>12</v>
+      </c>
+      <c r="C50">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="2">
+        <v>802535475120</v>
+      </c>
+      <c r="B51">
+        <v>12</v>
+      </c>
+      <c r="C51">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="2">
+        <v>802535476066</v>
+      </c>
+      <c r="B52">
+        <v>12</v>
+      </c>
+      <c r="C52">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="2">
+        <v>802535477063</v>
+      </c>
+      <c r="B53">
+        <v>12</v>
+      </c>
+      <c r="C53">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="2">
+        <v>802535478152</v>
+      </c>
+      <c r="B54">
+        <v>12</v>
+      </c>
+      <c r="C54">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="2">
+        <v>802535479159</v>
+      </c>
+      <c r="B55">
+        <v>12</v>
+      </c>
+      <c r="C55">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="2">
+        <v>802535480063</v>
+      </c>
+      <c r="B56">
+        <v>12</v>
+      </c>
+      <c r="C56">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="2">
+        <v>802535482081</v>
+      </c>
+      <c r="B57">
+        <v>6</v>
+      </c>
+      <c r="C57">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="2">
+        <v>802535490055</v>
+      </c>
+      <c r="B58">
+        <v>6</v>
+      </c>
+      <c r="C58">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="2">
+        <v>802535492127</v>
+      </c>
+      <c r="B59">
+        <v>24</v>
+      </c>
+      <c r="C59">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="2">
+        <v>802535493155</v>
+      </c>
+      <c r="B60">
+        <v>12</v>
+      </c>
+      <c r="C60">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="2">
+        <v>802535494121</v>
+      </c>
+      <c r="B61">
+        <v>12</v>
+      </c>
+      <c r="C61">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="2">
+        <v>802535495067</v>
+      </c>
+      <c r="B62">
+        <v>12</v>
+      </c>
+      <c r="C62">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="2">
+        <v>802535496156</v>
+      </c>
+      <c r="B63">
+        <v>12</v>
+      </c>
+      <c r="C63">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="2">
+        <v>802535497061</v>
+      </c>
+      <c r="B64">
+        <v>12</v>
+      </c>
+      <c r="C64">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="2">
+        <v>802535498068</v>
+      </c>
+      <c r="B65">
+        <v>6</v>
+      </c>
+      <c r="C65">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" s="2">
+        <v>802535498082</v>
+      </c>
+      <c r="B66">
+        <v>12</v>
+      </c>
+      <c r="C66">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" s="2">
+        <v>802535504042</v>
+      </c>
+      <c r="B67">
+        <v>30</v>
+      </c>
+      <c r="C67">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" s="2">
+        <v>802535505049</v>
+      </c>
+      <c r="B68">
+        <v>12</v>
+      </c>
+      <c r="C68">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" s="2">
+        <v>802535505056</v>
+      </c>
+      <c r="B69">
+        <v>12</v>
+      </c>
+      <c r="C69">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" s="2">
+        <v>802535527157</v>
+      </c>
+      <c r="B70">
+        <v>6</v>
+      </c>
+      <c r="C70">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" s="2">
+        <v>802535528154</v>
+      </c>
+      <c r="B71">
+        <v>12</v>
+      </c>
+      <c r="C71">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" s="2">
+        <v>802535528642</v>
+      </c>
+      <c r="B72">
+        <v>12</v>
+      </c>
+      <c r="C72">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" s="2">
+        <v>802535529151</v>
+      </c>
+      <c r="B73">
+        <v>12</v>
+      </c>
+      <c r="C73">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" s="2">
+        <v>802535529656</v>
+      </c>
+      <c r="B74">
+        <v>12</v>
+      </c>
+      <c r="C74">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" s="2">
+        <v>802535534124</v>
+      </c>
+      <c r="B75">
+        <v>12</v>
+      </c>
+      <c r="C75">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" s="2">
+        <v>802535537125</v>
+      </c>
+      <c r="B76">
+        <v>12</v>
+      </c>
+      <c r="C76">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" s="2">
+        <v>802535537347</v>
+      </c>
+      <c r="B77">
+        <v>12</v>
+      </c>
+      <c r="C77">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" s="2">
+        <v>802535538092</v>
+      </c>
+      <c r="B78">
+        <v>12</v>
+      </c>
+      <c r="C78">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" s="2">
+        <v>802535538344</v>
+      </c>
+      <c r="B79">
+        <v>12</v>
+      </c>
+      <c r="C79">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" s="2">
+        <v>802535542167</v>
+      </c>
+      <c r="B80">
+        <v>12</v>
+      </c>
+      <c r="C80">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" s="2">
+        <v>802535545120</v>
+      </c>
+      <c r="B81">
+        <v>12</v>
+      </c>
+      <c r="C81">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" s="2">
+        <v>802535548053</v>
+      </c>
+      <c r="B82">
+        <v>12</v>
+      </c>
+      <c r="C82">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" s="2">
+        <v>802535549081</v>
+      </c>
+      <c r="B83">
+        <v>12</v>
+      </c>
+      <c r="C83">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" s="2">
+        <v>802535549098</v>
+      </c>
+      <c r="B84">
+        <v>12</v>
+      </c>
+      <c r="C84">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" s="2">
+        <v>802535550094</v>
+      </c>
+      <c r="B85">
+        <v>12</v>
+      </c>
+      <c r="C85">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" s="2">
+        <v>802535551091</v>
+      </c>
+      <c r="B86">
+        <v>12</v>
+      </c>
+      <c r="C86">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" s="2">
+        <v>802535553101</v>
+      </c>
+      <c r="B87">
+        <v>11</v>
+      </c>
+      <c r="C87">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" s="2">
+        <v>802535554061</v>
+      </c>
+      <c r="B88">
+        <v>12</v>
+      </c>
+      <c r="C88">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" s="2">
+        <v>802535554092</v>
+      </c>
+      <c r="B89">
+        <v>6</v>
+      </c>
+      <c r="C89">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" s="2">
+        <v>802535555167</v>
+      </c>
+      <c r="B90">
+        <v>12</v>
+      </c>
+      <c r="C90">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" s="2">
+        <v>802535556164</v>
+      </c>
+      <c r="B91">
+        <v>12</v>
+      </c>
+      <c r="C91">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" s="2">
+        <v>802535556645</v>
+      </c>
+      <c r="B92">
+        <v>12</v>
+      </c>
+      <c r="C92">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" s="2">
+        <v>802535557062</v>
+      </c>
+      <c r="B93">
+        <v>72</v>
+      </c>
+      <c r="C93">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" s="2">
+        <v>802535564121</v>
+      </c>
+      <c r="B94">
+        <v>12</v>
+      </c>
+      <c r="C94">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" s="2">
+        <v>802535576056</v>
+      </c>
+      <c r="B95">
+        <v>432</v>
+      </c>
+      <c r="C95">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" s="2">
+        <v>802535576094</v>
+      </c>
+      <c r="B96">
+        <v>24</v>
+      </c>
+      <c r="C96">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" s="2">
+        <v>802535577060</v>
+      </c>
+      <c r="B97">
+        <v>12</v>
+      </c>
+      <c r="C97">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" s="2">
+        <v>802535578098</v>
+      </c>
+      <c r="B98">
+        <v>36</v>
+      </c>
+      <c r="C98">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" s="2">
+        <v>802535579064</v>
+      </c>
+      <c r="B99">
+        <v>12</v>
+      </c>
+      <c r="C99">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" s="2">
+        <v>802535587069</v>
+      </c>
+      <c r="B100">
+        <v>12</v>
+      </c>
+      <c r="C100">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" s="2">
+        <v>802535587120</v>
+      </c>
+      <c r="B101">
+        <v>12</v>
+      </c>
+      <c r="C101">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" s="2">
+        <v>802535592063</v>
+      </c>
+      <c r="B102">
+        <v>12</v>
+      </c>
+      <c r="C102">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" s="2">
+        <v>802535593084</v>
+      </c>
+      <c r="B103">
+        <v>6</v>
+      </c>
+      <c r="C103">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" s="2">
+        <v>802535594128</v>
+      </c>
+      <c r="B104">
+        <v>12</v>
+      </c>
+      <c r="C104">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" s="2">
+        <v>802535596085</v>
+      </c>
+      <c r="B105">
+        <v>6</v>
+      </c>
+      <c r="C105">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" s="2">
+        <v>802535597150</v>
+      </c>
+      <c r="B106">
+        <v>2</v>
+      </c>
+      <c r="C106">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" s="2">
+        <v>802535598157</v>
+      </c>
+      <c r="B107">
+        <v>6</v>
+      </c>
+      <c r="C107">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" s="2">
+        <v>802535620001</v>
+      </c>
+      <c r="B108">
+        <v>6</v>
+      </c>
+      <c r="C108">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109" s="2">
+        <v>802535701151</v>
+      </c>
+      <c r="B109">
+        <v>6</v>
+      </c>
+      <c r="C109">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110" s="2">
+        <v>802535702158</v>
+      </c>
+      <c r="B110">
+        <v>5</v>
+      </c>
+      <c r="C110">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111" s="2">
+        <v>802535703094</v>
+      </c>
+      <c r="B111">
+        <v>12</v>
+      </c>
+      <c r="C111">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112" s="2">
+        <v>802535704039</v>
+      </c>
+      <c r="B112">
+        <v>24</v>
+      </c>
+      <c r="C112">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" s="2">
+        <v>802535705128</v>
+      </c>
+      <c r="B113">
+        <v>12</v>
+      </c>
+      <c r="C113">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" s="2">
+        <v>802535706125</v>
+      </c>
+      <c r="B114">
+        <v>12</v>
+      </c>
+      <c r="C114">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" s="2">
+        <v>802535707085</v>
+      </c>
+      <c r="B115">
+        <v>12</v>
+      </c>
+      <c r="C115">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" s="2">
+        <v>802535708068</v>
+      </c>
+      <c r="B116">
+        <v>24</v>
+      </c>
+      <c r="C116">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" s="2">
+        <v>802535709157</v>
+      </c>
+      <c r="B117">
+        <v>12</v>
+      </c>
+      <c r="C117">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" s="2">
+        <v>802535711068</v>
+      </c>
+      <c r="B118">
+        <v>24</v>
+      </c>
+      <c r="C118">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119" s="2">
+        <v>703419501006</v>
+      </c>
+      <c r="B119">
+        <v>12</v>
+      </c>
+      <c r="C119">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" s="2">
+        <v>703419501013</v>
+      </c>
+      <c r="B120">
+        <v>6</v>
+      </c>
+      <c r="C120">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" s="2">
+        <v>703419501020</v>
+      </c>
+      <c r="B121">
+        <v>6</v>
+      </c>
+      <c r="C121">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" s="2">
+        <v>703419501907</v>
+      </c>
+      <c r="B122">
+        <v>36</v>
+      </c>
+      <c r="C122">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" s="2">
+        <v>703419501914</v>
+      </c>
+      <c r="B123">
+        <v>6</v>
+      </c>
+      <c r="C123">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" s="2">
+        <v>703419502003</v>
+      </c>
+      <c r="B124">
+        <v>12</v>
+      </c>
+      <c r="C124">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" s="2">
+        <v>703419502010</v>
+      </c>
+      <c r="B125">
+        <v>12</v>
+      </c>
+      <c r="C125">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="2">
-        <v>890670835060</v>
-      </c>
-      <c r="B2">
-        <v>100041</v>
-      </c>
-      <c r="C2">
+      <c r="B126">
+        <v>12</v>
+      </c>
+      <c r="C126">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" s="2">
+        <v>305210014008</v>
+      </c>
+      <c r="B127">
+        <v>12</v>
+      </c>
+      <c r="C127">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" s="2">
+        <v>305211793049</v>
+      </c>
+      <c r="B128">
+        <v>12</v>
+      </c>
+      <c r="C128">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" s="2">
+        <v>705342042076</v>
+      </c>
+      <c r="B129">
+        <v>12</v>
+      </c>
+      <c r="C129">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130" s="2">
+        <v>705372000046</v>
+      </c>
+      <c r="B130">
+        <v>12</v>
+      </c>
+      <c r="C130">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131" s="2">
+        <v>705372000060</v>
+      </c>
+      <c r="B131">
+        <v>12</v>
+      </c>
+      <c r="C131">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132" s="2">
+        <v>705372000084</v>
+      </c>
+      <c r="B132">
+        <v>12</v>
+      </c>
+      <c r="C132">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" s="2">
+        <v>705372000121</v>
+      </c>
+      <c r="B133">
+        <v>24</v>
+      </c>
+      <c r="C133">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134" s="2">
+        <v>705372000169</v>
+      </c>
+      <c r="B134">
+        <v>12</v>
+      </c>
+      <c r="C134">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135" s="2">
+        <v>705372000183</v>
+      </c>
+      <c r="B135">
+        <v>24</v>
+      </c>
+      <c r="C135">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136" s="2">
+        <v>705372000206</v>
+      </c>
+      <c r="B136">
+        <v>12</v>
+      </c>
+      <c r="C136">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137" s="2">
+        <v>705372000220</v>
+      </c>
+      <c r="B137">
+        <v>12</v>
+      </c>
+      <c r="C137">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138" s="2">
+        <v>705372000237</v>
+      </c>
+      <c r="B138">
+        <v>12</v>
+      </c>
+      <c r="C138">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139" s="2">
+        <v>705372000244</v>
+      </c>
+      <c r="B139">
+        <v>18</v>
+      </c>
+      <c r="C139">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140" s="2">
+        <v>705372000251</v>
+      </c>
+      <c r="B140">
+        <v>6</v>
+      </c>
+      <c r="C140">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141" s="2">
+        <v>705372000268</v>
+      </c>
+      <c r="B141">
+        <v>30</v>
+      </c>
+      <c r="C141">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142" s="2">
+        <v>705372000275</v>
+      </c>
+      <c r="B142">
+        <v>48</v>
+      </c>
+      <c r="C142">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143" s="2">
+        <v>705372000282</v>
+      </c>
+      <c r="B143">
+        <v>6</v>
+      </c>
+      <c r="C143">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144" s="2">
+        <v>705372000299</v>
+      </c>
+      <c r="B144">
+        <v>6</v>
+      </c>
+      <c r="C144">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145" s="2">
+        <v>705372000305</v>
+      </c>
+      <c r="B145">
+        <v>12</v>
+      </c>
+      <c r="C145">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146" s="2">
+        <v>705372000312</v>
+      </c>
+      <c r="B146">
+        <v>12</v>
+      </c>
+      <c r="C146">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147" s="2">
+        <v>705372000336</v>
+      </c>
+      <c r="B147">
+        <v>12</v>
+      </c>
+      <c r="C147">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148" s="2">
+        <v>705372000343</v>
+      </c>
+      <c r="B148">
+        <v>12</v>
+      </c>
+      <c r="C148">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149" s="2">
+        <v>705372000350</v>
+      </c>
+      <c r="B149">
+        <v>12</v>
+      </c>
+      <c r="C149">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150" s="2">
+        <v>705372000367</v>
+      </c>
+      <c r="B150">
+        <v>12</v>
+      </c>
+      <c r="C150">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151" s="2">
+        <v>705372000374</v>
+      </c>
+      <c r="B151">
+        <v>12</v>
+      </c>
+      <c r="C151">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A152" s="2">
+        <v>705372000381</v>
+      </c>
+      <c r="B152">
+        <v>12</v>
+      </c>
+      <c r="C152">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A153" s="2">
+        <v>705372000398</v>
+      </c>
+      <c r="B153">
+        <v>12</v>
+      </c>
+      <c r="C153">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A154" s="2">
+        <v>705372000411</v>
+      </c>
+      <c r="B154">
+        <v>12</v>
+      </c>
+      <c r="C154">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A155" s="2">
+        <v>705372000442</v>
+      </c>
+      <c r="B155">
+        <v>12</v>
+      </c>
+      <c r="C155">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A156" s="2">
+        <v>705372000459</v>
+      </c>
+      <c r="B156">
+        <v>120</v>
+      </c>
+      <c r="C156">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A157" s="2">
+        <v>705372000466</v>
+      </c>
+      <c r="B157">
+        <v>24</v>
+      </c>
+      <c r="C157">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A158" s="2">
+        <v>705372000473</v>
+      </c>
+      <c r="B158">
+        <v>12</v>
+      </c>
+      <c r="C158">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A159" s="2">
+        <v>705372000480</v>
+      </c>
+      <c r="B159">
+        <v>18</v>
+      </c>
+      <c r="C159">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A160" s="2">
+        <v>705372000503</v>
+      </c>
+      <c r="B160">
+        <v>18</v>
+      </c>
+      <c r="C160">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A161" s="2">
+        <v>705372000602</v>
+      </c>
+      <c r="B161">
+        <v>6</v>
+      </c>
+      <c r="C161">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A162" s="2">
+        <v>705372000619</v>
+      </c>
+      <c r="B162">
+        <v>36</v>
+      </c>
+      <c r="C162">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A163" s="2">
+        <v>705372000633</v>
+      </c>
+      <c r="B163">
+        <v>8</v>
+      </c>
+      <c r="C163">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A164" s="2">
+        <v>705372000640</v>
+      </c>
+      <c r="B164">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="2">
-        <v>890670835114</v>
-      </c>
-      <c r="B3">
-        <v>100041</v>
-      </c>
-      <c r="C3">
-        <v>22</v>
+      <c r="C164">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A165" s="2">
+        <v>705372000695</v>
+      </c>
+      <c r="B165">
+        <v>6</v>
+      </c>
+      <c r="C165">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A166" s="2">
+        <v>705372000701</v>
+      </c>
+      <c r="B166">
+        <v>12</v>
+      </c>
+      <c r="C166">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A167" s="2">
+        <v>705372000817</v>
+      </c>
+      <c r="B167">
+        <v>12</v>
+      </c>
+      <c r="C167">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A168" s="2">
+        <v>705372000824</v>
+      </c>
+      <c r="B168">
+        <v>3</v>
+      </c>
+      <c r="C168">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A169" s="2">
+        <v>705372000831</v>
+      </c>
+      <c r="B169">
+        <v>6</v>
+      </c>
+      <c r="C169">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A170" s="2">
+        <v>705372000909</v>
+      </c>
+      <c r="B170">
+        <v>3</v>
+      </c>
+      <c r="C170">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A171" s="2">
+        <v>705372000916</v>
+      </c>
+      <c r="B171">
+        <v>3</v>
+      </c>
+      <c r="C171">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A172" s="2">
+        <v>705372000923</v>
+      </c>
+      <c r="B172">
+        <v>6</v>
+      </c>
+      <c r="C172">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A173" s="2">
+        <v>705372000930</v>
+      </c>
+      <c r="B173">
+        <v>6</v>
+      </c>
+      <c r="C173">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A174" s="2">
+        <v>705372000947</v>
+      </c>
+      <c r="B174">
+        <v>12</v>
+      </c>
+      <c r="C174">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A175" s="2">
+        <v>705372000954</v>
+      </c>
+      <c r="B175">
+        <v>12</v>
+      </c>
+      <c r="C175">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A176" s="2">
+        <v>705372001081</v>
+      </c>
+      <c r="B176">
+        <v>6</v>
+      </c>
+      <c r="C176">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A177" s="2">
+        <v>705372001104</v>
+      </c>
+      <c r="B177">
+        <v>6</v>
+      </c>
+      <c r="C177">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A178" s="2">
+        <v>705372001265</v>
+      </c>
+      <c r="B178">
+        <v>12</v>
+      </c>
+      <c r="C178">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A179" s="2">
+        <v>705372001302</v>
+      </c>
+      <c r="B179">
+        <v>12</v>
+      </c>
+      <c r="C179">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A180" s="2">
+        <v>705372001319</v>
+      </c>
+      <c r="B180">
+        <v>12</v>
+      </c>
+      <c r="C180">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A181" s="2">
+        <v>705372001326</v>
+      </c>
+      <c r="B181">
+        <v>12</v>
+      </c>
+      <c r="C181">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A182" s="2">
+        <v>705372001333</v>
+      </c>
+      <c r="B182">
+        <v>6</v>
+      </c>
+      <c r="C182">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A183" s="2">
+        <v>705372001340</v>
+      </c>
+      <c r="B183">
+        <v>12</v>
+      </c>
+      <c r="C183">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A184" s="2">
+        <v>705372001357</v>
+      </c>
+      <c r="B184">
+        <v>4</v>
+      </c>
+      <c r="C184">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A185" s="2">
+        <v>705372001364</v>
+      </c>
+      <c r="B185">
+        <v>4</v>
+      </c>
+      <c r="C185">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A186" s="2">
+        <v>705372001371</v>
+      </c>
+      <c r="B186">
+        <v>24</v>
+      </c>
+      <c r="C186">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A187" s="2">
+        <v>705372001388</v>
+      </c>
+      <c r="B187">
+        <v>24</v>
+      </c>
+      <c r="C187">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A188" s="2">
+        <v>705372001449</v>
+      </c>
+      <c r="B188">
+        <v>6</v>
+      </c>
+      <c r="C188">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A189" s="2">
+        <v>705372001456</v>
+      </c>
+      <c r="B189">
+        <v>6</v>
+      </c>
+      <c r="C189">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A190" s="2">
+        <v>705372001463</v>
+      </c>
+      <c r="B190">
+        <v>6</v>
+      </c>
+      <c r="C190">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A191" s="2">
+        <v>705372001470</v>
+      </c>
+      <c r="B191">
+        <v>6</v>
+      </c>
+      <c r="C191">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A192" s="2">
+        <v>705372001487</v>
+      </c>
+      <c r="B192">
+        <v>24</v>
+      </c>
+      <c r="C192">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A193" s="2">
+        <v>705372001494</v>
+      </c>
+      <c r="B193">
+        <v>12</v>
+      </c>
+      <c r="C193">
+        <v>100196</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A194" s="2">
+        <v>705372001500</v>
+      </c>
+      <c r="B194">
+        <v>24</v>
+      </c>
+      <c r="C194">
+        <v>100196</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" location="items/edit/346468" display="https://bsw.myspringboard.us/ - items/edit/346468"/>
-    <hyperlink ref="A3" r:id="rId2" location="items/edit/346469" display="https://bsw.myspringboard.us/ - items/edit/346469"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>